--- a/1_Result_Tables/4_ifoCAST_evaluations_last_rep/ifoCAst_error_tables_last_rep_T55.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_last_rep/ifoCAst_error_tables_last_rep_T55.xlsx
@@ -423,22 +423,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2689769006988603</v>
+        <v>0.2674638667971811</v>
       </c>
       <c r="C2">
-        <v>1.715711111413182</v>
+        <v>1.761278749491586</v>
       </c>
       <c r="D2">
-        <v>11.72826711475629</v>
+        <v>11.53428961468776</v>
       </c>
       <c r="E2">
-        <v>3.424655765877249</v>
+        <v>3.39621695636303</v>
       </c>
       <c r="F2">
-        <v>3.498387409754537</v>
+        <v>3.465342416133991</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
